--- a/web_helper/data/imitate.xlsx
+++ b/web_helper/data/imitate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="44">
   <si>
     <t>A</t>
   </si>
@@ -97,6 +97,57 @@
   </si>
   <si>
     <t>16260</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>20280</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>30620</t>
+  </si>
+  <si>
+    <t>40940</t>
+  </si>
+  <si>
+    <t>51280</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>20140</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>20380</t>
+  </si>
+  <si>
+    <t>30380</t>
+  </si>
+  <si>
+    <t>40520</t>
+  </si>
+  <si>
+    <t>40660</t>
   </si>
 </sst>
 </file>
@@ -669,7 +720,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -951,7 +1002,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1">
       <c r="A12" s="3"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -966,67 +1017,169 @@
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="3"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
+    <row r="13" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="H14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" thickTop="1">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1116,7 +1269,7 @@
       <c r="L22" s="9"/>
       <c r="M22" s="10"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="8"/>
       <c r="C23" s="9"/>
@@ -1131,67 +1284,171 @@
       <c r="L23" s="9"/>
       <c r="M23" s="10"/>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13">
+    <row r="24" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickTop="1">
       <c r="A28" s="3"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>

--- a/web_helper/data/imitate.xlsx
+++ b/web_helper/data/imitate.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
